--- a/lib/db/output_directory/Monthly Budget.xlsx
+++ b/lib/db/output_directory/Monthly Budget.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>45.6</v>
+        <v>58.6</v>
       </c>
       <c r="D2" t="n">
-        <v>154.4</v>
+        <v>341.4</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>200</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>200</v>
       </c>
       <c r="C11" t="n">
-        <v>75.59999999999999</v>
+        <v>195.6</v>
       </c>
       <c r="D11" t="n">
-        <v>124.4</v>
+        <v>4.400000000000006</v>
       </c>
     </row>
   </sheetData>
